--- a/result/NCDC_weather_data/stations_imputed/55299099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/55299099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>1.697652</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>12.4475650359116</v>
+      </c>
       <c r="O2" t="n">
         <v>61.16</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0.050038</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.04349048342541436</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.903428</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>12.4475650359116</v>
+      </c>
       <c r="O3" t="n">
         <v>68.90000000000001</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0.050038</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.04349048342541436</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
